--- a/src/test/resources/io.dingodb.test/testdata/btreemysqlcases/ddl/mysql_ddl_cases_btree.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/btreemysqlcases/ddl/mysql_ddl_cases_btree.xlsx
@@ -680,39 +680,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create database MYBTREE_DDL_028;create table MYBTREE_DDL_028.MYBTREEDDL028_TBL01(id int, name varchar(20), primary key(id))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select `TABLE_CATALOG`,`TABLE_SCHEMA`,`TABLE_NAME`,`TABLE_TYPE`,`ENGINE`,`VERSION`,`ROW_FORMAT`,`TABLE_ROWS`,`AVG_ROW_LENGTH`,`DATA_LENGTH`,`MAX_DATA_LENGTH`,`INDEX_LENGTH`,`DATA_FREE`,`AUTO_INCREMENT`,`UPDATE_TIME`,`CHECK_TIME`,`TABLE_COLLATION`,`CHECKSUM`,`CREATE_OPTIONS`,`TABLE_COMMENT` from information_schema.tables where `TABLE_NAME`='MYBTREEDDL028_TBL01'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create database MYBTREE_DDL_029;create table MYBTREE_DDL_029.MYBTREEDDL029_TBL01(id int, name varchar(20), primary key(id));drop table MYBTREE_DDL_029.MYBTREEDDL029_TBL01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select `TABLE_CATALOG`,`TABLE_SCHEMA`,`TABLE_NAME`,`TABLE_TYPE`,`ENGINE`,`VERSION`,`ROW_FORMAT`,`TABLE_ROWS`,`AVG_ROW_LENGTH`,`DATA_LENGTH`,`MAX_DATA_LENGTH`,`INDEX_LENGTH`,`DATA_FREE`,`AUTO_INCREMENT`,`UPDATE_TIME`,`CHECK_TIME`,`TABLE_COLLATION`,`CHECKSUM`,`CREATE_OPTIONS`,`TABLE_COMMENT` from information_schema.tables where `TABLE_NAME`='MYBTREEDDL029_TBL01'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create table MYSQL.MYBTREEDDL030_TBL01(id int not null auto_increment, name varchar(20), primary key(id))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select `TABLE_CATALOG`,`TABLE_SCHEMA`,`TABLE_NAME`,`TABLE_TYPE`,`ENGINE`,`VERSION`,`ROW_FORMAT`,`TABLE_ROWS`,`AVG_ROW_LENGTH`,`DATA_LENGTH`,`MAX_DATA_LENGTH`,`INDEX_LENGTH`,`DATA_FREE`,`AUTO_INCREMENT`,`UPDATE_TIME`,`CHECK_TIME`,`TABLE_COLLATION`,`CHECKSUM`,`CREATE_OPTIONS`,`TABLE_COMMENT` from information_schema.tables where `TABLE_NAME`='MYBTREEDDL030_TBL01'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create table MYSQL.MYBTREEDDL031_TBL01(id int not null auto_increment, name varchar(20), primary key(id));drop table MYSQL.MYBTREEDDL031_TBL01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select `TABLE_CATALOG`,`TABLE_SCHEMA`,`TABLE_NAME`,`TABLE_TYPE`,`ENGINE`,`VERSION`,`ROW_FORMAT`,`TABLE_ROWS`,`AVG_ROW_LENGTH`,`DATA_LENGTH`,`MAX_DATA_LENGTH`,`INDEX_LENGTH`,`DATA_FREE`,`AUTO_INCREMENT`,`UPDATE_TIME`,`CHECK_TIME`,`TABLE_COLLATION`,`CHECKSUM`,`CREATE_OPTIONS`,`TABLE_COMMENT` from information_schema.tables where `TABLE_NAME`='MYBTREEDDL031_TBL01'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>select * from information_schema.schemata where schema_name in ('META','DINGO','ROOT','MYSQL','INFORMATION_SCHEMA','MYBTREE_DDL_026')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create database MYBTREE_DDL_028;create table MYBTREE_DDL_028.MYBTREEDDL028_TBL01(id int, name varchar(20), primary key(id)) engine=BTREE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create database MYBTREE_DDL_029;create table MYBTREE_DDL_029.MYBTREEDDL029_TBL01(id int, name varchar(20), primary key(id)) engine=BTREE;drop table MYBTREE_DDL_029.MYBTREEDDL029_TBL01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table MYSQL.MYBTREEDDL030_TBL01(id int not null auto_increment, name varchar(20), primary key(id)) engine=BTREE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table MYSQL.MYBTREEDDL031_TBL01(id int not null auto_increment, name varchar(20), primary key(id)) engine=BTREE;drop table MYSQL.MYBTREEDDL031_TBL01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1965,7 +1965,7 @@
         <v>183</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>172</v>
@@ -2024,10 +2024,10 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>174</v>
@@ -2055,10 +2055,10 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>175</v>
@@ -2086,10 +2086,10 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>176</v>
@@ -2117,10 +2117,10 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>177</v>
